--- a/biology/Zoologie/Corydoras_aeneus/Corydoras_aeneus.xlsx
+++ b/biology/Zoologie/Corydoras_aeneus/Corydoras_aeneus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Corydoras bronze ou Corydoras cuivré (Corydoras aeneus) est une espèce de poissons d'eau douce de la famille des Callichthyidés originaire du Venezuela.
 </t>
@@ -511,7 +523,9 @@
           <t>Aquariophilie[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Callichthyidés sont souvent désignés à tort dans le commerce sous l'appellation poissons nettoyeurs, bien qu'ils ne nettoient véritablement rien. Les Corydoras aeneus sont les plus faciles du genre à maintenir et à faire se reproduire. En général, ils aiment une eau avec un pH de 6 à 7, une dureté de 10°th et une température de 25 °C.
 Il faut maintenir environ 5 à 6 individus. Ils ignorent les autres habitants de l'aquarium, ce qui est sûrement dû au fait qu'en plus de leur cuirasse osseuse, ils ont une épine sur la nageoire dorsale.
